--- a/medicine/Premiers secours et secourisme/Étoile_de_vie/Étoile_de_vie.xlsx
+++ b/medicine/Premiers secours et secourisme/Étoile_de_vie/Étoile_de_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_vie</t>
+          <t>Étoile_de_vie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'étoile de vie (en anglais : Star of Life) est une étoile bleue à six branches, avec une bordure blanche, et en son centre le bâton d'Asclépios.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_vie</t>
+          <t>Étoile_de_vie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est conçue à l'origine par la National Highway Traffic Safety Administration (sous le département des Transports des États-Unis). Traditionnellement, aux États-Unis et en France, le logo a été utilisé comme un symbole pour les ambulances ou autres membres du personnel des services médicaux d'urgence. Au niveau international, il représente les unités et le personnel des services médicaux d'urgence. Une étoile orange similaire est utilisé pour la recherche et le sauvetage, et une autre version est utilisée pour le Wilderness Emergency Medical Technician (en).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_vie</t>
+          <t>Étoile_de_vie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Couleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, dans l'aide médicale urgente, si les ambulanciers portent l'étoile bleue, il arrive que les infirmiers en portent une verte et les médecins urgentistes, une rouge.
 </t>
